--- a/nr-rm-extension-nationality/ig/StructureDefinition-as-organization.xlsx
+++ b/nr-rm-extension-nationality/ig/StructureDefinition-as-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T12:07:38+00:00</t>
+    <t>2025-10-08T12:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil générique créé à partir de FrOrganization dans le contexte de l'Annuaire Santé pour décrire les organismes du domaine sanitaire, médico-social et social immatriculés dans le fichier national des établissements sanitaires et sociaux (FINESS) ou dans le Système Informatique pour le Répertoire des Entreprises et de leurs Établissements (SIRENE) dédié aux entreprises, associations et organismes du secteur public.</t>
+    <t>Profil générique créé à partir de FrOrganization dans le contexte de l'Annuaire Santé pour décrire les établissements sanitaires, sociaux et médico-sociaux immatriculés dans le FIchier National des Etablissements Sanitaires et Sociaux (FINESS) ou dans le Répertoire Partagé des Professionnels de Santé (RPPS).</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -4014,7 +4014,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>121</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
         <v>262</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>267</v>
       </c>
@@ -7126,7 +7126,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>273</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>279</v>
       </c>
@@ -7366,7 +7366,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>286</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>292</v>
       </c>
@@ -7848,7 +7848,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
         <v>315</v>
       </c>
@@ -15676,7 +15676,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="104" hidden="true">
+    <row r="104">
       <c r="A104" t="s" s="2">
         <v>528</v>
       </c>
@@ -26214,7 +26214,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="192" hidden="true">
+    <row r="192">
       <c r="A192" t="s" s="2">
         <v>688</v>
       </c>
@@ -26336,7 +26336,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="193" hidden="true">
+    <row r="193">
       <c r="A193" t="s" s="2">
         <v>698</v>
       </c>
@@ -33358,7 +33358,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="252" hidden="true">
+    <row r="252">
       <c r="A252" t="s" s="2">
         <v>846</v>
       </c>
@@ -33840,7 +33840,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="256" hidden="true">
+    <row r="256">
       <c r="A256" t="s" s="2">
         <v>851</v>
       </c>
@@ -35762,7 +35762,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="272" hidden="true">
+    <row r="272">
       <c r="A272" t="s" s="2">
         <v>930</v>
       </c>
@@ -35884,12 +35884,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP272">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
